--- a/helper/common_name_lists_ART1.xlsx
+++ b/helper/common_name_lists_ART1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hbl\randomcnname\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Emanon\Documents\GitHub\randomcnname\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="ship_names" sheetId="3" r:id="rId1"/>
+    <sheet name="planet_names" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="664">
   <si>
     <t>Vul</t>
   </si>
@@ -1885,6 +1886,457 @@
   </si>
   <si>
     <t>莫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vord</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Torb</t>
+  </si>
+  <si>
+    <t>Mirg</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Karp</t>
+  </si>
+  <si>
+    <t>Jorg</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Krop</t>
+  </si>
+  <si>
+    <t>Reld</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Hirk</t>
+  </si>
+  <si>
+    <t>Parg</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Torp</t>
+  </si>
+  <si>
+    <t>Terk</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Pont</t>
+  </si>
+  <si>
+    <t>Virm</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>Gand</t>
+  </si>
+  <si>
+    <t>Iram</t>
+  </si>
+  <si>
+    <t>Je</t>
+  </si>
+  <si>
+    <t>Otak</t>
+  </si>
+  <si>
+    <t>Larb</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Darm</t>
+  </si>
+  <si>
+    <t>Utam</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Borm</t>
+  </si>
+  <si>
+    <t>Pind</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Vosk</t>
+  </si>
+  <si>
+    <t>Verm</t>
+  </si>
+  <si>
+    <t>Birg</t>
+  </si>
+  <si>
+    <t>Itil</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Domb</t>
+  </si>
+  <si>
+    <t>Urak</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Tond</t>
+  </si>
+  <si>
+    <t>Urba</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Nack</t>
+  </si>
+  <si>
+    <t>Orol</t>
+  </si>
+  <si>
+    <t>Ju</t>
+  </si>
+  <si>
+    <t>Bakk</t>
+  </si>
+  <si>
+    <t>Lirg</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Korm</t>
+  </si>
+  <si>
+    <t>Tilk</t>
+  </si>
+  <si>
+    <t>Darb</t>
+  </si>
+  <si>
+    <t>Suet</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Pold</t>
+  </si>
+  <si>
+    <t>Sisk</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Atab</t>
+  </si>
+  <si>
+    <t>Taku</t>
+  </si>
+  <si>
+    <t>Molk</t>
+  </si>
+  <si>
+    <t>Rima</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>Posk</t>
+  </si>
+  <si>
+    <t>Tori</t>
+  </si>
+  <si>
+    <t>Karm</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Tura</t>
+  </si>
+  <si>
+    <t>尔特博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘德</t>
+  </si>
+  <si>
+    <t>赫克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喔勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喔拖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶佩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1939,7 +2391,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2228,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4376,6 +4858,576 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B22" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>542</v>
+      </c>
+      <c r="B25" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>581</v>
+      </c>
+      <c r="B27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>582</v>
+      </c>
+      <c r="B30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B31" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>578</v>
+      </c>
+      <c r="B33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>564</v>
+      </c>
+      <c r="B36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>597</v>
+      </c>
+      <c r="B39" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>565</v>
+      </c>
+      <c r="B40" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>587</v>
+      </c>
+      <c r="B41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>553</v>
+      </c>
+      <c r="B43" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B44" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>541</v>
+      </c>
+      <c r="B46" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>589</v>
+      </c>
+      <c r="B47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>586</v>
+      </c>
+      <c r="B49" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>576</v>
+      </c>
+      <c r="B50" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>592</v>
+      </c>
+      <c r="B51" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>549</v>
+      </c>
+      <c r="B53" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>559</v>
+      </c>
+      <c r="B54" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>574</v>
+      </c>
+      <c r="B56" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>536</v>
+      </c>
+      <c r="B57" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>598</v>
+      </c>
+      <c r="B58" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>548</v>
+      </c>
+      <c r="B59" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>572</v>
+      </c>
+      <c r="B61" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>575</v>
+      </c>
+      <c r="B62" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>567</v>
+      </c>
+      <c r="B64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>552</v>
+      </c>
+      <c r="B65" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>534</v>
+      </c>
+      <c r="B66" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>538</v>
+      </c>
+      <c r="B68" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A16386">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A69 A16387:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper/common_name_lists_ART1.xlsx
+++ b/helper/common_name_lists_ART1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ship_names" sheetId="3" r:id="rId1"/>
     <sheet name="planet_names" sheetId="4" r:id="rId2"/>
+    <sheet name="character_names" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="733">
   <si>
     <t>Vul</t>
   </si>
@@ -2337,6 +2338,252 @@
   </si>
   <si>
     <t>武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Pe</t>
+  </si>
+  <si>
+    <t>Uk</t>
+  </si>
+  <si>
+    <t>Il</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>Ul</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ek</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Gu</t>
+  </si>
+  <si>
+    <t>Ro</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>Uv</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>Ol</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Ev</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤埃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4869,7 +5116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -5428,6 +5675,370 @@
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AG1:AH43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AO37" sqref="AO37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG3" t="s">
+        <v>665</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG4" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG8" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG9" t="s">
+        <v>669</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG10" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG11" t="s">
+        <v>671</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG12" t="s">
+        <v>672</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG14" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG16" t="s">
+        <v>674</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG17" t="s">
+        <v>565</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG18" t="s">
+        <v>675</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG19" t="s">
+        <v>676</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG20" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG21" t="s">
+        <v>677</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="22" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG22" t="s">
+        <v>678</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="23" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG23" t="s">
+        <v>679</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG24" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG25" t="s">
+        <v>680</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG26" t="s">
+        <v>547</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG27" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG28" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG29" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG30" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG31" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="32" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG32" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG33" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG34" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG35" t="s">
+        <v>688</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="36" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG36" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="37" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG37" t="s">
+        <v>559</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="38" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG38" t="s">
+        <v>690</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="39" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG39" t="s">
+        <v>570</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="40" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG40" t="s">
+        <v>691</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="41" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG41" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="42" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG42" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="33:34" x14ac:dyDescent="0.2">
+      <c r="AG43" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>732</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AH1:AH1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper/common_name_lists_ART1.xlsx
+++ b/helper/common_name_lists_ART1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="ship_names" sheetId="3" r:id="rId1"/>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5686,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AG1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AO37" sqref="AO37"/>
     </sheetView>
   </sheetViews>
